--- a/biology/Microbiologie/Bartonella_quintana/Bartonella_quintana.xlsx
+++ b/biology/Microbiologie/Bartonella_quintana/Bartonella_quintana.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Bartonella quintana est un bacille anaérobie fastidieux causant la fièvre des tranchées[2]. Cette bactérie a infecté des soldats en Europe au cours de la Première Guerre mondiale[3]. Elle peut infecter les érythrocytes. Cette bactérie est transmise par le pou du corps humain. Elle a une taille estimée de génome de 1700 à 2174 kb.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bartonella quintana est un bacille anaérobie fastidieux causant la fièvre des tranchées. Cette bactérie a infecté des soldats en Europe au cours de la Première Guerre mondiale. Elle peut infecter les érythrocytes. Cette bactérie est transmise par le pou du corps humain. Elle a une taille estimée de génome de 1700 à 2174 kb.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Traitement</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Durant quatre à six semaines, le traitement consiste habituellement à prendre l'érythromycine ou la doxycycline ou l'azithromycine[4],[5].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Durant quatre à six semaines, le traitement consiste habituellement à prendre l'érythromycine ou la doxycycline ou l'azithromycine,.
 </t>
         </is>
       </c>
